--- a/memo/RR-Matrix.xlsx
+++ b/memo/RR-Matrix.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kenn/Git/Jones/memo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BE7F15-03AC-B842-B260-807D90A0D4F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F401592-C9A9-754E-8C28-210CEC589257}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7940" windowWidth="18840" windowHeight="13660" xr2:uid="{C28881F8-7D55-C046-B510-F2C8007FF724}"/>
+    <workbookView xWindow="0" yWindow="7940" windowWidth="18840" windowHeight="13660" activeTab="1" xr2:uid="{C28881F8-7D55-C046-B510-F2C8007FF724}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="143">
   <si>
     <t>Jones v.0.3 Round-robin Matrix</t>
     <phoneticPr fontId="1"/>
@@ -491,6 +492,50 @@
   </si>
   <si>
     <t>/;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Green</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Red</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rcalc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1K</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.2K</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>18K</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -531,7 +576,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -604,6 +649,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -619,7 +670,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -691,6 +742,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1019,8 +1073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E9B368-2B13-3F49-8091-344B5B7BA793}">
   <dimension ref="A1:Y88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="R83" sqref="R83"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3635,4 +3689,124 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{181F4640-98BA-0B4A-BAA5-2E9374938FAF}">
+  <dimension ref="B1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7">
+      <c r="B2" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="15">
+        <v>2.1</v>
+      </c>
+      <c r="D2" s="15">
+        <v>2</v>
+      </c>
+      <c r="E2" s="15">
+        <v>3.3</v>
+      </c>
+      <c r="F2" s="15">
+        <f>(E2-(C2-0.5))/(2/1000)</f>
+        <v>849.99999999999989</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="24">
+        <v>3.1</v>
+      </c>
+      <c r="D3" s="24">
+        <v>2</v>
+      </c>
+      <c r="E3" s="24">
+        <v>5</v>
+      </c>
+      <c r="F3" s="24">
+        <f t="shared" ref="F3:F5" si="0">(E3-(C3-0.5))/(2/1000)</f>
+        <v>1200</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4">
+        <v>2.1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>1700</v>
+      </c>
+      <c r="G4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5">
+        <v>3.1</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>3.3</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>349.99999999999989</v>
+      </c>
+      <c r="G5">
+        <v>390</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/memo/RR-Matrix.xlsx
+++ b/memo/RR-Matrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kenn/Git/Jones/memo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kenn/Git/jpskenn/Jones/memo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F401592-C9A9-754E-8C28-210CEC589257}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF321396-F8D8-114E-9323-A14DF55748BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7940" windowWidth="18840" windowHeight="13660" activeTab="1" xr2:uid="{C28881F8-7D55-C046-B510-F2C8007FF724}"/>
+    <workbookView xWindow="-24060" yWindow="2680" windowWidth="23620" windowHeight="20680" xr2:uid="{C28881F8-7D55-C046-B510-F2C8007FF724}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,8 +25,48 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Nishio Takeshi</author>
+  </authors>
+  <commentList>
+    <comment ref="J109" authorId="0" shapeId="0" xr:uid="{B042F91B-436F-B545-901D-1C7B0095F484}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Yu Gothic UI"/>
+          </rPr>
+          <t>Nishio Takeshi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Yu Gothic UI"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Yu Gothic UI"/>
+          </rPr>
+          <t>ここらへん、ソケットのパッドが重なる配置にするので、いい具合にまとめる</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="277">
   <si>
     <t>Jones v.0.3 Round-robin Matrix</t>
     <phoneticPr fontId="1"/>
@@ -536,6 +576,425 @@
   </si>
   <si>
     <t>18K</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>esc</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>\</t>
+  </si>
+  <si>
+    <t>`~</t>
+  </si>
+  <si>
+    <t>tab</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bs</t>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>ctl</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>ent</t>
+  </si>
+  <si>
+    <t>sft</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>RE</t>
+  </si>
+  <si>
+    <t>opt</t>
+  </si>
+  <si>
+    <t>cmd</t>
+  </si>
+  <si>
+    <t>???</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>;:</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>'"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>spc.R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cnt.R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cnt.C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cnt.L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>spc.L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>Row1, 6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Row2,7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Row3,8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Row4,9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Row5,a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(53)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(32)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -543,7 +1002,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -575,8 +1034,35 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Yu Gothic UI"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Yu Gothic UI"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -655,6 +1141,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -670,7 +1162,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -745,6 +1237,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1070,11 +1580,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E9B368-2B13-3F49-8091-344B5B7BA793}">
-  <dimension ref="A1:Y88"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E9B368-2B13-3F49-8091-344B5B7BA793}">
+  <dimension ref="A1:AB116"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="K125" sqref="K125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1184,53 +1694,53 @@
       <c r="B12" s="3">
         <v>1</v>
       </c>
-      <c r="C12" s="3" t="str">
-        <f>IF(C$11=$B12,"",C$11&amp;$B12)</f>
-        <v/>
+      <c r="C12" s="3" t="b">
+        <f>IF(C$11=$B12,FALSE,$B12&amp;C$11)</f>
+        <v>0</v>
       </c>
       <c r="D12" s="3" t="str">
-        <f>IF(D$11=$B12,"",D$11&amp;$B12)</f>
-        <v>21</v>
+        <f t="shared" ref="D12:N23" si="0">IF(D$11=$B12,FALSE,$B12&amp;D$11)</f>
+        <v>12</v>
       </c>
       <c r="E12" s="3" t="str">
-        <f t="shared" ref="E12:N23" si="0">IF(E$11=$B12,"",E$11&amp;$B12)</f>
-        <v>31</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="F12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="H12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="J12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="K12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="L12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>a1</v>
+        <v>1a</v>
       </c>
       <c r="M12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>b1</v>
+        <v>1b</v>
       </c>
       <c r="N12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>c1</v>
+        <v>1c</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1238,52 +1748,52 @@
         <v>2</v>
       </c>
       <c r="C13" s="3" t="str">
-        <f t="shared" ref="C13:D23" si="1">IF(C$11=$B13,"",C$11&amp;$B13)</f>
-        <v>12</v>
-      </c>
-      <c r="D13" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" ref="C13:C23" si="1">IF(C$11=$B13,FALSE,$B13&amp;C$11)</f>
+        <v>21</v>
+      </c>
+      <c r="D13" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="H13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="I13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="J13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="K13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="L13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>a2</v>
+        <v>2a</v>
       </c>
       <c r="M13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>b2</v>
+        <v>2b</v>
       </c>
       <c r="N13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>c2</v>
+        <v>2c</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1292,51 +1802,51 @@
       </c>
       <c r="C14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D14" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="E14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="E14" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="H14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="J14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="K14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="L14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>a3</v>
+        <v>3a</v>
       </c>
       <c r="M14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>b3</v>
+        <v>3b</v>
       </c>
       <c r="N14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>c3</v>
+        <v>3c</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1345,51 +1855,51 @@
       </c>
       <c r="C15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="D15" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>42</v>
       </c>
       <c r="E15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="F15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>43</v>
+      </c>
+      <c r="F15" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="J15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="K15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="L15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>a4</v>
+        <v>4a</v>
       </c>
       <c r="M15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>b4</v>
+        <v>4b</v>
       </c>
       <c r="N15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>c4</v>
+        <v>4c</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1398,51 +1908,51 @@
       </c>
       <c r="C16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D16" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>25</v>
+        <f t="shared" si="0"/>
+        <v>52</v>
       </c>
       <c r="E16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="F16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="G16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>54</v>
+      </c>
+      <c r="G16" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="H16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="I16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="J16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="K16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="L16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>a5</v>
+        <v>5a</v>
       </c>
       <c r="M16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>b5</v>
+        <v>5b</v>
       </c>
       <c r="N16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>c5</v>
+        <v>5c</v>
       </c>
     </row>
     <row r="17" spans="2:14">
@@ -1451,51 +1961,51 @@
       </c>
       <c r="C17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="D17" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>26</v>
+        <f t="shared" si="0"/>
+        <v>62</v>
       </c>
       <c r="E17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="F17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="H17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>65</v>
+      </c>
+      <c r="H17" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="J17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="K17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="L17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>a6</v>
+        <v>6a</v>
       </c>
       <c r="M17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>b6</v>
+        <v>6b</v>
       </c>
       <c r="N17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>c6</v>
+        <v>6c</v>
       </c>
     </row>
     <row r="18" spans="2:14">
@@ -1504,51 +2014,51 @@
       </c>
       <c r="C18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="D18" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>27</v>
+        <f t="shared" si="0"/>
+        <v>72</v>
       </c>
       <c r="E18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="F18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="H18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-      <c r="I18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>76</v>
+      </c>
+      <c r="I18" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="J18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="L18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>a7</v>
+        <v>7a</v>
       </c>
       <c r="M18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>b7</v>
+        <v>7b</v>
       </c>
       <c r="N18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>c7</v>
+        <v>7c</v>
       </c>
     </row>
     <row r="19" spans="2:14">
@@ -1557,51 +2067,51 @@
       </c>
       <c r="C19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="D19" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>28</v>
+        <f t="shared" si="0"/>
+        <v>82</v>
       </c>
       <c r="E19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="F19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="H19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="I19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>78</v>
-      </c>
-      <c r="J19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>87</v>
+      </c>
+      <c r="J19" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="K19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="L19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>a8</v>
+        <v>8a</v>
       </c>
       <c r="M19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>b8</v>
+        <v>8b</v>
       </c>
       <c r="N19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>c8</v>
+        <v>8c</v>
       </c>
     </row>
     <row r="20" spans="2:14">
@@ -1610,51 +2120,51 @@
       </c>
       <c r="C20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="D20" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <f t="shared" si="0"/>
+        <v>92</v>
       </c>
       <c r="E20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="F20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="H20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="I20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="J20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>89</v>
-      </c>
-      <c r="K20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>98</v>
+      </c>
+      <c r="K20" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>a9</v>
+        <v>9a</v>
       </c>
       <c r="M20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>b9</v>
+        <v>9b</v>
       </c>
       <c r="N20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>c9</v>
+        <v>9c</v>
       </c>
     </row>
     <row r="21" spans="2:14">
@@ -1663,51 +2173,51 @@
       </c>
       <c r="C21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>1a</v>
+        <v>a1</v>
       </c>
       <c r="D21" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>2a</v>
+        <f t="shared" si="0"/>
+        <v>a2</v>
       </c>
       <c r="E21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>3a</v>
+        <v>a3</v>
       </c>
       <c r="F21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>4a</v>
+        <v>a4</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>5a</v>
+        <v>a5</v>
       </c>
       <c r="H21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>6a</v>
+        <v>a6</v>
       </c>
       <c r="I21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>7a</v>
+        <v>a7</v>
       </c>
       <c r="J21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>8a</v>
+        <v>a8</v>
       </c>
       <c r="K21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>9a</v>
-      </c>
-      <c r="L21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>a9</v>
+      </c>
+      <c r="L21" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="M21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ba</v>
+        <v>ab</v>
       </c>
       <c r="N21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ca</v>
+        <v>ac</v>
       </c>
     </row>
     <row r="22" spans="2:14">
@@ -1716,51 +2226,51 @@
       </c>
       <c r="C22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>1b</v>
+        <v>b1</v>
       </c>
       <c r="D22" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>2b</v>
+        <f t="shared" si="0"/>
+        <v>b2</v>
       </c>
       <c r="E22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>3b</v>
+        <v>b3</v>
       </c>
       <c r="F22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>4b</v>
+        <v>b4</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>5b</v>
+        <v>b5</v>
       </c>
       <c r="H22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>6b</v>
+        <v>b6</v>
       </c>
       <c r="I22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>7b</v>
+        <v>b7</v>
       </c>
       <c r="J22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>8b</v>
+        <v>b8</v>
       </c>
       <c r="K22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>9b</v>
+        <v>b9</v>
       </c>
       <c r="L22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ab</v>
-      </c>
-      <c r="M22" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>ba</v>
+      </c>
+      <c r="M22" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>cb</v>
+        <v>bc</v>
       </c>
     </row>
     <row r="23" spans="2:14">
@@ -1769,51 +2279,51 @@
       </c>
       <c r="C23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>1c</v>
+        <v>c1</v>
       </c>
       <c r="D23" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>2c</v>
+        <f t="shared" si="0"/>
+        <v>c2</v>
       </c>
       <c r="E23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>3c</v>
+        <v>c3</v>
       </c>
       <c r="F23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>4c</v>
+        <v>c4</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>5c</v>
+        <v>c5</v>
       </c>
       <c r="H23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>6c</v>
+        <v>c6</v>
       </c>
       <c r="I23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>7c</v>
+        <v>c7</v>
       </c>
       <c r="J23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>8c</v>
+        <v>c8</v>
       </c>
       <c r="K23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>9c</v>
+        <v>c9</v>
       </c>
       <c r="L23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ac</v>
+        <v>ca</v>
       </c>
       <c r="M23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>bc</v>
-      </c>
-      <c r="N23" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>cb</v>
+      </c>
+      <c r="N23" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:14">
@@ -3475,7 +3985,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="3:17">
+    <row r="81" spans="2:28">
       <c r="N81" s="7">
         <v>84</v>
       </c>
@@ -3489,7 +3999,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="3:17">
+    <row r="82" spans="2:28">
       <c r="N82" s="7">
         <v>85</v>
       </c>
@@ -3503,7 +4013,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="3:17">
+    <row r="83" spans="2:28">
       <c r="I83" s="9">
         <v>76</v>
       </c>
@@ -3520,7 +4030,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="84" spans="3:17">
+    <row r="84" spans="2:28">
       <c r="C84" s="9">
         <v>17</v>
       </c>
@@ -3552,7 +4062,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="3:17">
+    <row r="85" spans="2:28">
       <c r="C85" s="9">
         <v>18</v>
       </c>
@@ -3584,7 +4094,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="3:17">
+    <row r="86" spans="2:28">
       <c r="C86" s="9">
         <v>19</v>
       </c>
@@ -3616,7 +4126,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="87" spans="3:17">
+    <row r="87" spans="2:28">
       <c r="C87" s="10" t="s">
         <v>32</v>
       </c>
@@ -3648,7 +4158,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="88" spans="3:17">
+    <row r="88" spans="2:28">
       <c r="C88" s="10" t="s">
         <v>43</v>
       </c>
@@ -3677,6 +4187,1070 @@
         <v>51</v>
       </c>
       <c r="L88" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="93" spans="2:28">
+      <c r="B93" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="2:28">
+      <c r="D94" t="s">
+        <v>197</v>
+      </c>
+      <c r="E94" t="s">
+        <v>198</v>
+      </c>
+      <c r="F94" t="s">
+        <v>199</v>
+      </c>
+      <c r="G94" t="s">
+        <v>200</v>
+      </c>
+      <c r="H94" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="I94" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="J94" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="K94" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="L94" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="T94" t="s">
+        <v>197</v>
+      </c>
+      <c r="U94" t="s">
+        <v>198</v>
+      </c>
+      <c r="V94" t="s">
+        <v>199</v>
+      </c>
+      <c r="W94" t="s">
+        <v>200</v>
+      </c>
+      <c r="X94" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z94" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA94" t="s">
+        <v>204</v>
+      </c>
+      <c r="AB94" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="95" spans="2:28">
+      <c r="C95" t="s">
+        <v>205</v>
+      </c>
+      <c r="E95" t="s">
+        <v>206</v>
+      </c>
+      <c r="F95" t="s">
+        <v>207</v>
+      </c>
+      <c r="G95" t="s">
+        <v>208</v>
+      </c>
+      <c r="H95" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="I95" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="J95" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="K95" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="L95" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="S95" t="s">
+        <v>205</v>
+      </c>
+      <c r="U95" t="s">
+        <v>206</v>
+      </c>
+      <c r="V95" t="s">
+        <v>207</v>
+      </c>
+      <c r="W95" t="s">
+        <v>208</v>
+      </c>
+      <c r="X95" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z95" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA95" t="s">
+        <v>212</v>
+      </c>
+      <c r="AB95" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="96" spans="2:28">
+      <c r="C96" t="s">
+        <v>213</v>
+      </c>
+      <c r="D96" t="s">
+        <v>214</v>
+      </c>
+      <c r="F96" t="s">
+        <v>215</v>
+      </c>
+      <c r="G96" t="s">
+        <v>216</v>
+      </c>
+      <c r="H96" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="I96" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="J96" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="K96" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="L96" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="S96" t="s">
+        <v>213</v>
+      </c>
+      <c r="T96" t="s">
+        <v>214</v>
+      </c>
+      <c r="V96" t="s">
+        <v>215</v>
+      </c>
+      <c r="W96" t="s">
+        <v>216</v>
+      </c>
+      <c r="X96" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z96" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA96" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB96" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="97" spans="2:28">
+      <c r="C97" t="s">
+        <v>221</v>
+      </c>
+      <c r="D97" t="s">
+        <v>222</v>
+      </c>
+      <c r="E97" t="s">
+        <v>223</v>
+      </c>
+      <c r="G97" t="s">
+        <v>224</v>
+      </c>
+      <c r="H97" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="I97" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="J97" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="K97" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="L97" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="S97" t="s">
+        <v>221</v>
+      </c>
+      <c r="T97" t="s">
+        <v>222</v>
+      </c>
+      <c r="U97" t="s">
+        <v>223</v>
+      </c>
+      <c r="W97" t="s">
+        <v>224</v>
+      </c>
+      <c r="X97" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z97" t="s">
+        <v>227</v>
+      </c>
+      <c r="AA97" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB97" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="98" spans="2:28">
+      <c r="C98" t="s">
+        <v>229</v>
+      </c>
+      <c r="D98" t="s">
+        <v>230</v>
+      </c>
+      <c r="E98" t="s">
+        <v>231</v>
+      </c>
+      <c r="F98" t="s">
+        <v>232</v>
+      </c>
+      <c r="H98" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="I98" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="J98" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="K98" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="L98" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="S98" t="s">
+        <v>229</v>
+      </c>
+      <c r="T98" t="s">
+        <v>230</v>
+      </c>
+      <c r="U98" t="s">
+        <v>231</v>
+      </c>
+      <c r="V98" t="s">
+        <v>232</v>
+      </c>
+      <c r="X98" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>234</v>
+      </c>
+      <c r="Z98" t="s">
+        <v>235</v>
+      </c>
+      <c r="AA98" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB98" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="99" spans="2:28">
+      <c r="C99" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="D99" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="E99" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="F99" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="G99" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="I99" t="s">
+        <v>242</v>
+      </c>
+      <c r="J99" t="s">
+        <v>243</v>
+      </c>
+      <c r="K99" t="s">
+        <v>244</v>
+      </c>
+      <c r="L99" t="s">
+        <v>37</v>
+      </c>
+      <c r="S99" t="s">
+        <v>237</v>
+      </c>
+      <c r="T99" t="s">
+        <v>238</v>
+      </c>
+      <c r="U99" t="s">
+        <v>239</v>
+      </c>
+      <c r="V99" t="s">
+        <v>240</v>
+      </c>
+      <c r="W99" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>242</v>
+      </c>
+      <c r="Z99" t="s">
+        <v>243</v>
+      </c>
+      <c r="AA99" t="s">
+        <v>244</v>
+      </c>
+      <c r="AB99" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="100" spans="2:28">
+      <c r="C100" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="D100" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="E100" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="F100" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="G100" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="H100" t="s">
+        <v>250</v>
+      </c>
+      <c r="J100" t="s">
+        <v>251</v>
+      </c>
+      <c r="K100" t="s">
+        <v>252</v>
+      </c>
+      <c r="L100" t="s">
+        <v>38</v>
+      </c>
+      <c r="S100" t="s">
+        <v>245</v>
+      </c>
+      <c r="T100" t="s">
+        <v>246</v>
+      </c>
+      <c r="U100" t="s">
+        <v>247</v>
+      </c>
+      <c r="V100" t="s">
+        <v>248</v>
+      </c>
+      <c r="W100" t="s">
+        <v>249</v>
+      </c>
+      <c r="X100" t="s">
+        <v>250</v>
+      </c>
+      <c r="Z100" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA100" t="s">
+        <v>252</v>
+      </c>
+      <c r="AB100" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="101" spans="2:28">
+      <c r="C101" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="D101" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="E101" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="F101" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="G101" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="H101" t="s">
+        <v>258</v>
+      </c>
+      <c r="I101" t="s">
+        <v>259</v>
+      </c>
+      <c r="K101" t="s">
+        <v>260</v>
+      </c>
+      <c r="L101" t="s">
+        <v>39</v>
+      </c>
+      <c r="S101" t="s">
+        <v>253</v>
+      </c>
+      <c r="T101" t="s">
+        <v>254</v>
+      </c>
+      <c r="U101" t="s">
+        <v>255</v>
+      </c>
+      <c r="V101" t="s">
+        <v>256</v>
+      </c>
+      <c r="W101" t="s">
+        <v>257</v>
+      </c>
+      <c r="X101" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA101" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB101" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="102" spans="2:28">
+      <c r="C102" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="D102" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="E102" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="F102" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="G102" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="H102" t="s">
+        <v>266</v>
+      </c>
+      <c r="I102" t="s">
+        <v>267</v>
+      </c>
+      <c r="J102" t="s">
+        <v>268</v>
+      </c>
+      <c r="L102" t="s">
+        <v>40</v>
+      </c>
+      <c r="S102" t="s">
+        <v>261</v>
+      </c>
+      <c r="T102" t="s">
+        <v>262</v>
+      </c>
+      <c r="U102" t="s">
+        <v>263</v>
+      </c>
+      <c r="V102" t="s">
+        <v>264</v>
+      </c>
+      <c r="W102" t="s">
+        <v>265</v>
+      </c>
+      <c r="X102" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>267</v>
+      </c>
+      <c r="Z102" t="s">
+        <v>268</v>
+      </c>
+      <c r="AB102" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="103" spans="2:28">
+      <c r="C103" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D103" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F103" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G103" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H103" t="s">
+        <v>20</v>
+      </c>
+      <c r="I103" t="s">
+        <v>23</v>
+      </c>
+      <c r="J103" t="s">
+        <v>26</v>
+      </c>
+      <c r="K103" t="s">
+        <v>29</v>
+      </c>
+      <c r="S103" t="s">
+        <v>5</v>
+      </c>
+      <c r="T103" t="s">
+        <v>8</v>
+      </c>
+      <c r="U103" t="s">
+        <v>11</v>
+      </c>
+      <c r="V103" t="s">
+        <v>14</v>
+      </c>
+      <c r="W103" t="s">
+        <v>17</v>
+      </c>
+      <c r="X103" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z103" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA103" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="105" spans="2:28">
+      <c r="C105" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D105" s="3">
+        <v>1</v>
+      </c>
+      <c r="E105" s="3">
+        <v>2</v>
+      </c>
+      <c r="F105" s="3">
+        <v>3</v>
+      </c>
+      <c r="G105" s="3">
+        <v>4</v>
+      </c>
+      <c r="H105" s="3">
+        <v>5</v>
+      </c>
+      <c r="I105" s="3">
+        <v>6</v>
+      </c>
+      <c r="J105" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="K105" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="L105" s="3">
+        <v>7</v>
+      </c>
+      <c r="M105" s="3">
+        <v>8</v>
+      </c>
+      <c r="N105" s="3">
+        <v>9</v>
+      </c>
+      <c r="O105" s="3">
+        <v>10</v>
+      </c>
+      <c r="P105" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q105" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="106" spans="2:28">
+      <c r="C106" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K106" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="L106" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M106" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="N106" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="O106" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="P106" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q106" s="3"/>
+    </row>
+    <row r="107" spans="2:28">
+      <c r="C107" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="J107" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="K107" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="L107" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="M107" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="N107" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="O107" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="P107" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q107" s="3"/>
+    </row>
+    <row r="108" spans="2:28">
+      <c r="C108" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="K108" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="L108" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="M108" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="N108" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="O108" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="P108" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q108" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="109" spans="2:28">
+      <c r="C109" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G109" s="3"/>
+      <c r="H109" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="J109" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="K109" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="L109" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="M109" s="3"/>
+      <c r="N109" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="O109" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="P109" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q109" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="111" spans="2:28">
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="3"/>
+      <c r="I111" s="3"/>
+      <c r="J111" s="3"/>
+      <c r="K111" s="3"/>
+      <c r="L111" s="3"/>
+      <c r="M111" s="3"/>
+      <c r="N111" s="3">
+        <v>9</v>
+      </c>
+      <c r="O111" s="3">
+        <v>9</v>
+      </c>
+      <c r="P111" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q111" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="2:28">
+      <c r="B112" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="F112" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="H112" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="I112" s="29">
+        <v>67</v>
+      </c>
+      <c r="J112" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="K112" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="L112" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="M112" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="N112" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="O112" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="P112" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q112" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" spans="2:17">
+      <c r="B113" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="F113" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="H113" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="J113" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="K113" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="L113" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="M113" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="N113" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="O113" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="P113" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q113" s="3"/>
+    </row>
+    <row r="114" spans="2:17">
+      <c r="B114" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F114" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="H114" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="J114" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="K114" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="L114" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="M114" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="N114" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="O114" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="P114" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q114" s="13" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="115" spans="2:17">
+      <c r="B115" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F115" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="H115" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="J115" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="K115" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="L115" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="M115" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="N115" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="O115" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="P115" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q115" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="116" spans="2:17">
+      <c r="B116" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D116" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="F116" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G116" s="17"/>
+      <c r="H116" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="J116" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="K116" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="L116" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="M116" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="N116" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="O116" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="P116" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q116" s="3">
         <v>52</v>
       </c>
     </row>
@@ -3688,6 +5262,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3695,7 +5270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{181F4640-98BA-0B4A-BAA5-2E9374938FAF}">
   <dimension ref="B1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>

--- a/memo/RR-Matrix.xlsx
+++ b/memo/RR-Matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kenn/Git/jpskenn/Jones/memo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF321396-F8D8-114E-9323-A14DF55748BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7DE8D7-2382-534D-9B69-50FCB25C26D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24060" yWindow="2680" windowWidth="23620" windowHeight="20680" xr2:uid="{C28881F8-7D55-C046-B510-F2C8007FF724}"/>
+    <workbookView xWindow="-19200" yWindow="500" windowWidth="19200" windowHeight="23500" xr2:uid="{C28881F8-7D55-C046-B510-F2C8007FF724}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1583,8 +1583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E9B368-2B13-3F49-8091-344B5B7BA793}">
   <dimension ref="A1:AB116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="K125" sqref="K125"/>
+    <sheetView tabSelected="1" topLeftCell="B90" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M121" sqref="M121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4793,7 +4793,7 @@
         <v>9</v>
       </c>
       <c r="O105" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P105" s="3" t="s">
         <v>144</v>

--- a/memo/RR-Matrix.xlsx
+++ b/memo/RR-Matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kenn/Git/jpskenn/Jones/memo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7DE8D7-2382-534D-9B69-50FCB25C26D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567DE8DD-C6FA-664A-8EB2-80C05AA4AA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19200" yWindow="500" windowWidth="19200" windowHeight="23500" xr2:uid="{C28881F8-7D55-C046-B510-F2C8007FF724}"/>
+    <workbookView xWindow="22940" yWindow="3640" windowWidth="25600" windowHeight="23500" xr2:uid="{C28881F8-7D55-C046-B510-F2C8007FF724}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="277">
   <si>
     <t>Jones v.0.3 Round-robin Matrix</t>
     <phoneticPr fontId="1"/>
@@ -1002,7 +1002,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1061,8 +1061,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1147,6 +1155,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1162,7 +1176,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1238,12 +1252,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1255,6 +1263,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1581,10 +1601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E9B368-2B13-3F49-8091-344B5B7BA793}">
-  <dimension ref="A1:AB116"/>
+  <dimension ref="A1:AB129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B90" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M121" sqref="M121"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1654,45 +1674,45 @@
     <row r="11" spans="1:14">
       <c r="B11" s="3"/>
       <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
         <v>1</v>
       </c>
-      <c r="D11" s="3">
+      <c r="E11" s="3">
         <v>2</v>
       </c>
-      <c r="E11" s="3">
+      <c r="F11" s="3">
         <v>3</v>
       </c>
-      <c r="F11" s="3">
+      <c r="G11" s="3">
         <v>4</v>
       </c>
-      <c r="G11" s="3">
+      <c r="H11" s="3">
         <v>5</v>
       </c>
-      <c r="H11" s="3">
+      <c r="I11" s="3">
         <v>6</v>
       </c>
-      <c r="I11" s="3">
+      <c r="J11" s="3">
         <v>7</v>
       </c>
-      <c r="J11" s="3">
+      <c r="K11" s="3">
         <v>8</v>
       </c>
-      <c r="K11" s="3">
+      <c r="L11" s="3">
         <v>9</v>
       </c>
-      <c r="L11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>3</v>
+      <c r="M11" s="3">
+        <v>10</v>
+      </c>
+      <c r="N11" s="3">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="B12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="3" t="b">
         <f>IF(C$11=$B12,FALSE,$B12&amp;C$11)</f>
@@ -1700,56 +1720,56 @@
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" ref="D12:N23" si="0">IF(D$11=$B12,FALSE,$B12&amp;D$11)</f>
-        <v>12</v>
+        <v>01</v>
       </c>
       <c r="E12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>02</v>
       </c>
       <c r="F12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>03</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>04</v>
       </c>
       <c r="H12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>05</v>
       </c>
       <c r="I12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>06</v>
       </c>
       <c r="J12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>07</v>
       </c>
       <c r="K12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>08</v>
       </c>
       <c r="L12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>1a</v>
+        <v>09</v>
       </c>
       <c r="M12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>1b</v>
+        <v>010</v>
       </c>
       <c r="N12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>1c</v>
+        <v>011</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="B13" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="3" t="str">
         <f t="shared" ref="C13:C23" si="1">IF(C$11=$B13,FALSE,$B13&amp;C$11)</f>
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D13" s="3" t="b">
         <f t="shared" si="0"/>
@@ -1757,56 +1777,56 @@
       </c>
       <c r="E13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="J13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="K13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2a</v>
+        <v>19</v>
       </c>
       <c r="M13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2b</v>
+        <v>110</v>
       </c>
       <c r="N13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2c</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="B14" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E14" s="3" t="b">
         <f t="shared" si="0"/>
@@ -1814,56 +1834,56 @@
       </c>
       <c r="F14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="H14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="J14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="K14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="L14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>3a</v>
+        <v>29</v>
       </c>
       <c r="M14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>3b</v>
+        <v>210</v>
       </c>
       <c r="N14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>3c</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="B15" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F15" s="3" t="b">
         <f t="shared" si="0"/>
@@ -1871,56 +1891,56 @@
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="J15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="L15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>4a</v>
+        <v>39</v>
       </c>
       <c r="M15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>4b</v>
+        <v>310</v>
       </c>
       <c r="N15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>4c</v>
+        <v>311</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="B16" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G16" s="3" t="b">
         <f t="shared" si="0"/>
@@ -1928,56 +1948,56 @@
       </c>
       <c r="H16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="J16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="K16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="L16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>5a</v>
+        <v>49</v>
       </c>
       <c r="M16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>5b</v>
+        <v>410</v>
       </c>
       <c r="N16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>5c</v>
+        <v>411</v>
       </c>
     </row>
     <row r="17" spans="2:14">
       <c r="B17" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="H17" s="3" t="b">
         <f t="shared" si="0"/>
@@ -1985,56 +2005,56 @@
       </c>
       <c r="I17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="J17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="K17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="L17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>6a</v>
+        <v>59</v>
       </c>
       <c r="M17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>6b</v>
+        <v>510</v>
       </c>
       <c r="N17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>6c</v>
+        <v>511</v>
       </c>
     </row>
     <row r="18" spans="2:14">
       <c r="B18" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="E18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="I18" s="3" t="b">
         <f t="shared" si="0"/>
@@ -2042,56 +2062,56 @@
       </c>
       <c r="J18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="K18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="L18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>7a</v>
+        <v>69</v>
       </c>
       <c r="M18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>7b</v>
+        <v>610</v>
       </c>
       <c r="N18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>7c</v>
+        <v>611</v>
       </c>
     </row>
     <row r="19" spans="2:14">
       <c r="B19" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="F19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="H19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J19" s="3" t="b">
         <f t="shared" si="0"/>
@@ -2099,56 +2119,56 @@
       </c>
       <c r="K19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="L19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>8a</v>
+        <v>79</v>
       </c>
       <c r="M19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>8b</v>
+        <v>710</v>
       </c>
       <c r="N19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>8c</v>
+        <v>711</v>
       </c>
     </row>
     <row r="20" spans="2:14">
       <c r="B20" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="I20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="J20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="K20" s="3" t="b">
         <f t="shared" si="0"/>
@@ -2156,56 +2176,56 @@
       </c>
       <c r="L20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>9a</v>
+        <v>89</v>
       </c>
       <c r="M20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>9b</v>
+        <v>810</v>
       </c>
       <c r="N20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>9c</v>
+        <v>811</v>
       </c>
     </row>
     <row r="21" spans="2:14">
-      <c r="B21" s="3" t="s">
-        <v>1</v>
+      <c r="B21" s="3">
+        <v>9</v>
       </c>
       <c r="C21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>a1</v>
+        <v>90</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>a2</v>
+        <v>91</v>
       </c>
       <c r="E21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>a3</v>
+        <v>92</v>
       </c>
       <c r="F21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>a4</v>
+        <v>93</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>a5</v>
+        <v>94</v>
       </c>
       <c r="H21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>a6</v>
+        <v>95</v>
       </c>
       <c r="I21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>a7</v>
+        <v>96</v>
       </c>
       <c r="J21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>a8</v>
+        <v>97</v>
       </c>
       <c r="K21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>a9</v>
+        <v>98</v>
       </c>
       <c r="L21" s="3" t="b">
         <f t="shared" si="0"/>
@@ -2213,56 +2233,56 @@
       </c>
       <c r="M21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ab</v>
+        <v>910</v>
       </c>
       <c r="N21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ac</v>
+        <v>911</v>
       </c>
     </row>
     <row r="22" spans="2:14">
-      <c r="B22" s="3" t="s">
-        <v>2</v>
+      <c r="B22" s="3">
+        <v>10</v>
       </c>
       <c r="C22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>b1</v>
+        <v>100</v>
       </c>
       <c r="D22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>b2</v>
+        <v>101</v>
       </c>
       <c r="E22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>b3</v>
+        <v>102</v>
       </c>
       <c r="F22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>b4</v>
+        <v>103</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>b5</v>
+        <v>104</v>
       </c>
       <c r="H22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>b6</v>
+        <v>105</v>
       </c>
       <c r="I22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>b7</v>
+        <v>106</v>
       </c>
       <c r="J22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>b8</v>
+        <v>107</v>
       </c>
       <c r="K22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>b9</v>
+        <v>108</v>
       </c>
       <c r="L22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ba</v>
+        <v>109</v>
       </c>
       <c r="M22" s="3" t="b">
         <f t="shared" si="0"/>
@@ -2270,56 +2290,56 @@
       </c>
       <c r="N22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>bc</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="23" spans="2:14">
-      <c r="B23" s="3" t="s">
-        <v>3</v>
+      <c r="B23" s="3">
+        <v>11</v>
       </c>
       <c r="C23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>c1</v>
+        <v>110</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>c2</v>
+        <v>111</v>
       </c>
       <c r="E23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>c3</v>
+        <v>112</v>
       </c>
       <c r="F23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>c4</v>
+        <v>113</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>c5</v>
+        <v>114</v>
       </c>
       <c r="H23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>c6</v>
+        <v>115</v>
       </c>
       <c r="I23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>c7</v>
+        <v>116</v>
       </c>
       <c r="J23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>c8</v>
+        <v>117</v>
       </c>
       <c r="K23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>c9</v>
+        <v>118</v>
       </c>
       <c r="L23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ca</v>
+        <v>119</v>
       </c>
       <c r="M23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>cb</v>
+        <v>1110</v>
       </c>
       <c r="N23" s="3" t="b">
         <f t="shared" si="0"/>
@@ -4190,37 +4210,38 @@
         <v>52</v>
       </c>
     </row>
-    <row r="93" spans="2:28">
-      <c r="B93" t="s">
+    <row r="92" spans="2:28">
+      <c r="B92" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="94" spans="2:28">
-      <c r="D94" t="s">
+      <c r="C94" s="29"/>
+      <c r="D94" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G94" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="H94" s="26" t="s">
+      <c r="H94" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="I94" s="26" t="s">
+      <c r="I94" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="J94" s="26" t="s">
+      <c r="J94" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="K94" s="26" t="s">
+      <c r="K94" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="L94" s="26" t="s">
+      <c r="L94" s="31" t="s">
         <v>32</v>
       </c>
       <c r="T94" t="s">
@@ -4252,31 +4273,32 @@
       </c>
     </row>
     <row r="95" spans="2:28">
-      <c r="C95" t="s">
+      <c r="C95" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="E95" t="s">
+      <c r="D95" s="29"/>
+      <c r="E95" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G95" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="H95" s="26" t="s">
+      <c r="H95" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="I95" s="26" t="s">
+      <c r="I95" s="31" t="s">
         <v>210</v>
       </c>
-      <c r="J95" s="26" t="s">
+      <c r="J95" s="31" t="s">
         <v>211</v>
       </c>
-      <c r="K95" s="26" t="s">
+      <c r="K95" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="L95" s="26" t="s">
+      <c r="L95" s="31" t="s">
         <v>33</v>
       </c>
       <c r="S95" t="s">
@@ -4308,31 +4330,32 @@
       </c>
     </row>
     <row r="96" spans="2:28">
-      <c r="C96" t="s">
+      <c r="C96" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="F96" t="s">
+      <c r="E96" s="29"/>
+      <c r="F96" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="G96" t="s">
+      <c r="G96" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="H96" s="26" t="s">
+      <c r="H96" s="31" t="s">
         <v>217</v>
       </c>
-      <c r="I96" s="26" t="s">
+      <c r="I96" s="31" t="s">
         <v>218</v>
       </c>
-      <c r="J96" s="26" t="s">
+      <c r="J96" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="K96" s="26" t="s">
+      <c r="K96" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="L96" s="26" t="s">
+      <c r="L96" s="31" t="s">
         <v>34</v>
       </c>
       <c r="S96" t="s">
@@ -4364,31 +4387,32 @@
       </c>
     </row>
     <row r="97" spans="2:28">
-      <c r="C97" t="s">
+      <c r="C97" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E97" s="29" t="s">
         <v>223</v>
       </c>
-      <c r="G97" t="s">
+      <c r="F97" s="29"/>
+      <c r="G97" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="H97" s="26" t="s">
+      <c r="H97" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="I97" s="26" t="s">
+      <c r="I97" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="J97" s="26" t="s">
+      <c r="J97" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="K97" s="26" t="s">
+      <c r="K97" s="31" t="s">
         <v>228</v>
       </c>
-      <c r="L97" s="26" t="s">
+      <c r="L97" s="31" t="s">
         <v>35</v>
       </c>
       <c r="S97" t="s">
@@ -4420,31 +4444,32 @@
       </c>
     </row>
     <row r="98" spans="2:28">
-      <c r="C98" t="s">
+      <c r="C98" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E98" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F98" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="H98" s="26" t="s">
+      <c r="G98" s="29"/>
+      <c r="H98" s="31" t="s">
         <v>233</v>
       </c>
-      <c r="I98" s="26" t="s">
+      <c r="I98" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="J98" s="26" t="s">
+      <c r="J98" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="K98" s="26" t="s">
+      <c r="K98" s="31" t="s">
         <v>236</v>
       </c>
-      <c r="L98" s="26" t="s">
+      <c r="L98" s="31" t="s">
         <v>36</v>
       </c>
       <c r="S98" t="s">
@@ -4476,31 +4501,32 @@
       </c>
     </row>
     <row r="99" spans="2:28">
-      <c r="C99" s="25" t="s">
+      <c r="C99" s="32" t="s">
         <v>237</v>
       </c>
-      <c r="D99" s="25" t="s">
+      <c r="D99" s="32" t="s">
         <v>238</v>
       </c>
-      <c r="E99" s="25" t="s">
+      <c r="E99" s="32" t="s">
         <v>239</v>
       </c>
-      <c r="F99" s="25" t="s">
+      <c r="F99" s="32" t="s">
         <v>240</v>
       </c>
-      <c r="G99" s="25" t="s">
+      <c r="G99" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="I99" t="s">
+      <c r="H99" s="29"/>
+      <c r="I99" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="J99" t="s">
+      <c r="J99" s="30" t="s">
         <v>243</v>
       </c>
-      <c r="K99" t="s">
+      <c r="K99" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="L99" t="s">
+      <c r="L99" s="29" t="s">
         <v>37</v>
       </c>
       <c r="S99" t="s">
@@ -4532,31 +4558,32 @@
       </c>
     </row>
     <row r="100" spans="2:28">
-      <c r="C100" s="25" t="s">
+      <c r="C100" s="32" t="s">
         <v>245</v>
       </c>
-      <c r="D100" s="25" t="s">
+      <c r="D100" s="32" t="s">
         <v>246</v>
       </c>
-      <c r="E100" s="25" t="s">
+      <c r="E100" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="F100" s="25" t="s">
+      <c r="F100" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="G100" s="25" t="s">
+      <c r="G100" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="H100" t="s">
+      <c r="H100" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="J100" t="s">
+      <c r="I100" s="29"/>
+      <c r="J100" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="K100" t="s">
+      <c r="K100" s="30" t="s">
         <v>252</v>
       </c>
-      <c r="L100" t="s">
+      <c r="L100" s="29" t="s">
         <v>38</v>
       </c>
       <c r="S100" t="s">
@@ -4588,31 +4615,32 @@
       </c>
     </row>
     <row r="101" spans="2:28">
-      <c r="C101" s="25" t="s">
+      <c r="C101" s="32" t="s">
         <v>253</v>
       </c>
-      <c r="D101" s="25" t="s">
+      <c r="D101" s="32" t="s">
         <v>254</v>
       </c>
-      <c r="E101" s="25" t="s">
+      <c r="E101" s="32" t="s">
         <v>255</v>
       </c>
-      <c r="F101" s="25" t="s">
+      <c r="F101" s="32" t="s">
         <v>256</v>
       </c>
-      <c r="G101" s="25" t="s">
+      <c r="G101" s="32" t="s">
         <v>257</v>
       </c>
-      <c r="H101" t="s">
+      <c r="H101" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="I101" t="s">
+      <c r="I101" s="30" t="s">
         <v>259</v>
       </c>
-      <c r="K101" t="s">
+      <c r="J101" s="29"/>
+      <c r="K101" s="30" t="s">
         <v>260</v>
       </c>
-      <c r="L101" t="s">
+      <c r="L101" s="29" t="s">
         <v>39</v>
       </c>
       <c r="S101" t="s">
@@ -4644,31 +4672,32 @@
       </c>
     </row>
     <row r="102" spans="2:28">
-      <c r="C102" s="25" t="s">
+      <c r="C102" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="D102" s="25" t="s">
+      <c r="D102" s="32" t="s">
         <v>262</v>
       </c>
-      <c r="E102" s="25" t="s">
+      <c r="E102" s="32" t="s">
         <v>263</v>
       </c>
-      <c r="F102" s="25" t="s">
+      <c r="F102" s="32" t="s">
         <v>264</v>
       </c>
-      <c r="G102" s="25" t="s">
+      <c r="G102" s="32" t="s">
         <v>265</v>
       </c>
-      <c r="H102" t="s">
+      <c r="H102" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="I102" t="s">
+      <c r="I102" s="30" t="s">
         <v>267</v>
       </c>
-      <c r="J102" t="s">
+      <c r="J102" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="L102" t="s">
+      <c r="K102" s="29"/>
+      <c r="L102" s="29" t="s">
         <v>40</v>
       </c>
       <c r="S102" t="s">
@@ -4700,33 +4729,34 @@
       </c>
     </row>
     <row r="103" spans="2:28">
-      <c r="C103" s="25" t="s">
+      <c r="C103" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D103" s="25" t="s">
+      <c r="D103" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="E103" s="25" t="s">
+      <c r="E103" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="F103" s="25" t="s">
+      <c r="F103" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G103" s="25" t="s">
+      <c r="G103" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="H103" t="s">
+      <c r="H103" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I103" t="s">
+      <c r="I103" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="J103" t="s">
+      <c r="J103" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="K103" t="s">
+      <c r="K103" s="29" t="s">
         <v>29</v>
       </c>
+      <c r="L103" s="29"/>
       <c r="S103" t="s">
         <v>5</v>
       </c>
@@ -5021,16 +5051,16 @@
       <c r="E112" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="F112" s="28" t="s">
+      <c r="F112" s="26" t="s">
         <v>241</v>
       </c>
       <c r="G112" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="H112" s="28" t="s">
+      <c r="H112" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="I112" s="29">
+      <c r="I112" s="27">
         <v>67</v>
       </c>
       <c r="J112" s="8" t="s">
@@ -5039,19 +5069,19 @@
       <c r="K112" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="L112" s="28" t="s">
+      <c r="L112" s="26" t="s">
         <v>239</v>
       </c>
       <c r="M112" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="N112" s="28" t="s">
+      <c r="N112" s="26" t="s">
         <v>240</v>
       </c>
       <c r="O112" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="P112" s="28" t="s">
+      <c r="P112" s="26" t="s">
         <v>238</v>
       </c>
       <c r="Q112" s="3">
@@ -5071,13 +5101,13 @@
       <c r="E113" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="F113" s="28" t="s">
+      <c r="F113" s="26" t="s">
         <v>249</v>
       </c>
       <c r="G113" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="H113" s="28" t="s">
+      <c r="H113" s="26" t="s">
         <v>245</v>
       </c>
       <c r="I113" s="3" t="s">
@@ -5089,19 +5119,19 @@
       <c r="K113" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="L113" s="28" t="s">
+      <c r="L113" s="26" t="s">
         <v>247</v>
       </c>
       <c r="M113" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="N113" s="28" t="s">
+      <c r="N113" s="26" t="s">
         <v>248</v>
       </c>
       <c r="O113" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="P113" s="28" t="s">
+      <c r="P113" s="26" t="s">
         <v>246</v>
       </c>
       <c r="Q113" s="3"/>
@@ -5119,13 +5149,13 @@
       <c r="E114" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="F114" s="28" t="s">
+      <c r="F114" s="26" t="s">
         <v>257</v>
       </c>
       <c r="G114" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="H114" s="28" t="s">
+      <c r="H114" s="26" t="s">
         <v>253</v>
       </c>
       <c r="I114" s="3" t="s">
@@ -5137,19 +5167,19 @@
       <c r="K114" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="L114" s="28" t="s">
+      <c r="L114" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="M114" s="30" t="s">
+      <c r="M114" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="N114" s="28" t="s">
+      <c r="N114" s="26" t="s">
         <v>256</v>
       </c>
       <c r="O114" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="P114" s="28" t="s">
+      <c r="P114" s="26" t="s">
         <v>254</v>
       </c>
       <c r="Q114" s="13" t="s">
@@ -5169,13 +5199,13 @@
       <c r="E115" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="F115" s="28" t="s">
+      <c r="F115" s="26" t="s">
         <v>265</v>
       </c>
       <c r="G115" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="H115" s="28" t="s">
+      <c r="H115" s="26" t="s">
         <v>261</v>
       </c>
       <c r="I115" s="3" t="s">
@@ -5187,19 +5217,19 @@
       <c r="K115" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="L115" s="28" t="s">
+      <c r="L115" s="26" t="s">
         <v>263</v>
       </c>
       <c r="M115" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="N115" s="28" t="s">
+      <c r="N115" s="26" t="s">
         <v>264</v>
       </c>
       <c r="O115" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="P115" s="28" t="s">
+      <c r="P115" s="26" t="s">
         <v>262</v>
       </c>
       <c r="Q115" s="3">
@@ -5213,17 +5243,17 @@
       <c r="C116" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D116" s="27" t="s">
+      <c r="D116" s="25" t="s">
         <v>274</v>
       </c>
       <c r="E116" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="F116" s="28" t="s">
+      <c r="F116" s="26" t="s">
         <v>17</v>
       </c>
       <c r="G116" s="17"/>
-      <c r="H116" s="28" t="s">
+      <c r="H116" s="26" t="s">
         <v>5</v>
       </c>
       <c r="I116" s="3" t="s">
@@ -5235,23 +5265,323 @@
       <c r="K116" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="L116" s="28" t="s">
+      <c r="L116" s="26" t="s">
         <v>11</v>
       </c>
       <c r="M116" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="N116" s="28" t="s">
+      <c r="N116" s="26" t="s">
         <v>14</v>
       </c>
       <c r="O116" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="P116" s="28" t="s">
+      <c r="P116" s="26" t="s">
         <v>8</v>
       </c>
       <c r="Q116" s="3">
         <v>52</v>
+      </c>
+    </row>
+    <row r="120" spans="2:17">
+      <c r="C120" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D120" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="E120" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="F120" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="G120" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="H120" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="I120" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="J120" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="K120" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="L120" s="29"/>
+    </row>
+    <row r="121" spans="2:17">
+      <c r="C121" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D121" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="E121" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="F121" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="G121" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="H121" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="I121" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="J121" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="K121" s="29"/>
+      <c r="L121" s="29" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="122" spans="2:17">
+      <c r="C122" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D122" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="E122" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="F122" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="G122" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="H122" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="I122" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="J122" s="29"/>
+      <c r="K122" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="L122" s="29" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="123" spans="2:17">
+      <c r="C123" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D123" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="E123" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="F123" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="G123" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="H123" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="I123" s="29"/>
+      <c r="J123" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="K123" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="L123" s="29" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="124" spans="2:17">
+      <c r="C124" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D124" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="E124" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="F124" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="G124" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="H124" s="29"/>
+      <c r="I124" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="J124" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="K124" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="L124" s="29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="125" spans="2:17">
+      <c r="C125" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D125" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="E125" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="F125" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G125" s="29"/>
+      <c r="H125" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="I125" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="J125" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="K125" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="L125" s="32" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="126" spans="2:17">
+      <c r="C126" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D126" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="E126" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="F126" s="29"/>
+      <c r="G126" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="H126" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="I126" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="J126" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="K126" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="L126" s="32" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="127" spans="2:17">
+      <c r="C127" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D127" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="E127" s="29"/>
+      <c r="F127" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="G127" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="H127" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="I127" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="J127" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="K127" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="L127" s="32" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="128" spans="2:17">
+      <c r="C128" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D128" s="29"/>
+      <c r="E128" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="F128" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="G128" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="H128" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="I128" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="J128" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="K128" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="L128" s="32" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="129" spans="3:12">
+      <c r="C129" s="29"/>
+      <c r="D129" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E129" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F129" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G129" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H129" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="I129" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J129" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="K129" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="L129" s="32" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -5262,6 +5592,9 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="E112:Q116" numberStoredAsText="1"/>
+  </ignoredErrors>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>

--- a/memo/RR-Matrix.xlsx
+++ b/memo/RR-Matrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kenn/Git/jpskenn/Jones/memo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567DE8DD-C6FA-664A-8EB2-80C05AA4AA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D967B29-3299-AB4E-B311-3BFD75449F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22940" yWindow="3640" windowWidth="25600" windowHeight="23500" xr2:uid="{C28881F8-7D55-C046-B510-F2C8007FF724}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25100" windowHeight="28300" xr2:uid="{C28881F8-7D55-C046-B510-F2C8007FF724}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -66,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="291">
   <si>
     <t>Jones v.0.3 Round-robin Matrix</t>
     <phoneticPr fontId="1"/>
@@ -995,6 +1002,69 @@
   </si>
   <si>
     <t>(32)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v.1(042), v.0.4.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0始まりのピン番号に変更</t>
+    <rPh sb="1" eb="2">
+      <t xml:space="preserve">ハジマリノ </t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(21)</t>
+  </si>
+  <si>
+    <t>(42)</t>
+  </si>
+  <si>
+    <t>09</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>08</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>07</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>05</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>04</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v.1.1: SemiErgo追加</t>
+    <rPh sb="15" eb="17">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1002,7 +1072,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1062,6 +1132,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
@@ -1176,7 +1255,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1275,6 +1354,36 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1601,10 +1710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E9B368-2B13-3F49-8091-344B5B7BA793}">
-  <dimension ref="A1:AB129"/>
+  <dimension ref="A1:AB168"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G157" sqref="G157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -5554,7 +5663,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="129" spans="3:12">
+    <row r="129" spans="2:17">
       <c r="C129" s="29"/>
       <c r="D129" s="29" t="s">
         <v>29</v>
@@ -5582,6 +5691,1113 @@
       </c>
       <c r="L129" s="32" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="2:17">
+      <c r="B132" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="133" spans="2:17">
+      <c r="B133" s="33" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="134" spans="2:17">
+      <c r="B134" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C134" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="D134" s="3">
+        <v>59</v>
+      </c>
+      <c r="E134" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="F134" s="26">
+        <v>54</v>
+      </c>
+      <c r="G134" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="H134" s="26">
+        <v>50</v>
+      </c>
+      <c r="I134" s="27">
+        <v>56</v>
+      </c>
+      <c r="J134" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="K134" s="41" t="s">
+        <v>285</v>
+      </c>
+      <c r="L134" s="26">
+        <v>52</v>
+      </c>
+      <c r="M134" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="N134" s="26">
+        <v>53</v>
+      </c>
+      <c r="O134" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="P134" s="26">
+        <v>51</v>
+      </c>
+      <c r="Q134" s="13" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="135" spans="2:17">
+      <c r="B135" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C135" s="8">
+        <v>19</v>
+      </c>
+      <c r="D135" s="3">
+        <v>69</v>
+      </c>
+      <c r="E135" s="8">
+        <v>18</v>
+      </c>
+      <c r="F135" s="26">
+        <v>64</v>
+      </c>
+      <c r="G135" s="3">
+        <v>14</v>
+      </c>
+      <c r="H135" s="26">
+        <v>60</v>
+      </c>
+      <c r="I135" s="3">
+        <v>10</v>
+      </c>
+      <c r="J135" s="8">
+        <v>16</v>
+      </c>
+      <c r="K135" s="8">
+        <v>15</v>
+      </c>
+      <c r="L135" s="26">
+        <v>62</v>
+      </c>
+      <c r="M135" s="3">
+        <v>12</v>
+      </c>
+      <c r="N135" s="26">
+        <v>63</v>
+      </c>
+      <c r="O135" s="8">
+        <v>17</v>
+      </c>
+      <c r="P135" s="26">
+        <v>61</v>
+      </c>
+      <c r="Q135" s="3"/>
+    </row>
+    <row r="136" spans="2:17">
+      <c r="B136" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C136" s="8">
+        <v>29</v>
+      </c>
+      <c r="D136" s="3">
+        <v>79</v>
+      </c>
+      <c r="E136" s="8">
+        <v>28</v>
+      </c>
+      <c r="F136" s="26">
+        <v>74</v>
+      </c>
+      <c r="G136" s="3">
+        <v>24</v>
+      </c>
+      <c r="H136" s="26">
+        <v>70</v>
+      </c>
+      <c r="I136" s="3">
+        <v>20</v>
+      </c>
+      <c r="J136" s="8">
+        <v>26</v>
+      </c>
+      <c r="K136" s="8">
+        <v>25</v>
+      </c>
+      <c r="L136" s="26">
+        <v>72</v>
+      </c>
+      <c r="M136" s="28">
+        <v>23</v>
+      </c>
+      <c r="N136" s="26">
+        <v>73</v>
+      </c>
+      <c r="O136" s="8">
+        <v>27</v>
+      </c>
+      <c r="P136" s="26">
+        <v>71</v>
+      </c>
+      <c r="Q136" s="13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="137" spans="2:17">
+      <c r="B137" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C137" s="8">
+        <v>39</v>
+      </c>
+      <c r="D137" s="3">
+        <v>89</v>
+      </c>
+      <c r="E137" s="8">
+        <v>38</v>
+      </c>
+      <c r="F137" s="26">
+        <v>84</v>
+      </c>
+      <c r="G137" s="3">
+        <v>34</v>
+      </c>
+      <c r="H137" s="26">
+        <v>80</v>
+      </c>
+      <c r="I137" s="3">
+        <v>30</v>
+      </c>
+      <c r="J137" s="8">
+        <v>36</v>
+      </c>
+      <c r="K137" s="8">
+        <v>35</v>
+      </c>
+      <c r="L137" s="26">
+        <v>82</v>
+      </c>
+      <c r="M137" s="3">
+        <v>32</v>
+      </c>
+      <c r="N137" s="26">
+        <v>83</v>
+      </c>
+      <c r="O137" s="8">
+        <v>37</v>
+      </c>
+      <c r="P137" s="26">
+        <v>81</v>
+      </c>
+      <c r="Q137" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="138" spans="2:17">
+      <c r="B138" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C138" s="8">
+        <v>49</v>
+      </c>
+      <c r="D138" s="25">
+        <v>98</v>
+      </c>
+      <c r="E138" s="8">
+        <v>48</v>
+      </c>
+      <c r="F138" s="26">
+        <v>94</v>
+      </c>
+      <c r="G138" s="17"/>
+      <c r="H138" s="26">
+        <v>90</v>
+      </c>
+      <c r="I138" s="3">
+        <v>40</v>
+      </c>
+      <c r="J138" s="8">
+        <v>46</v>
+      </c>
+      <c r="K138" s="8">
+        <v>45</v>
+      </c>
+      <c r="L138" s="26">
+        <v>92</v>
+      </c>
+      <c r="M138" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="N138" s="26">
+        <v>93</v>
+      </c>
+      <c r="O138" s="8">
+        <v>47</v>
+      </c>
+      <c r="P138" s="26">
+        <v>91</v>
+      </c>
+      <c r="Q138" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="140" spans="2:17">
+      <c r="C140" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="D140" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="E140" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="F140" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="G140" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="H140" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="I140" s="36" t="s">
+        <v>287</v>
+      </c>
+      <c r="J140" s="35" t="s">
+        <v>288</v>
+      </c>
+      <c r="K140" s="35" t="s">
+        <v>289</v>
+      </c>
+      <c r="L140" s="35"/>
+    </row>
+    <row r="141" spans="2:17">
+      <c r="C141" s="37">
+        <v>19</v>
+      </c>
+      <c r="D141" s="37">
+        <v>18</v>
+      </c>
+      <c r="E141" s="37">
+        <v>17</v>
+      </c>
+      <c r="F141" s="37">
+        <v>16</v>
+      </c>
+      <c r="G141" s="37">
+        <v>15</v>
+      </c>
+      <c r="H141" s="38">
+        <v>14</v>
+      </c>
+      <c r="I141" s="39">
+        <v>13</v>
+      </c>
+      <c r="J141" s="38">
+        <v>12</v>
+      </c>
+      <c r="K141" s="38"/>
+      <c r="L141" s="38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="2:17">
+      <c r="C142" s="37">
+        <v>29</v>
+      </c>
+      <c r="D142" s="37">
+        <v>28</v>
+      </c>
+      <c r="E142" s="37">
+        <v>27</v>
+      </c>
+      <c r="F142" s="37">
+        <v>26</v>
+      </c>
+      <c r="G142" s="37">
+        <v>25</v>
+      </c>
+      <c r="H142" s="38">
+        <v>24</v>
+      </c>
+      <c r="I142" s="38">
+        <v>23</v>
+      </c>
+      <c r="J142" s="38"/>
+      <c r="K142" s="38">
+        <v>21</v>
+      </c>
+      <c r="L142" s="38">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143" spans="2:17">
+      <c r="C143" s="37">
+        <v>39</v>
+      </c>
+      <c r="D143" s="37">
+        <v>38</v>
+      </c>
+      <c r="E143" s="37">
+        <v>37</v>
+      </c>
+      <c r="F143" s="37">
+        <v>36</v>
+      </c>
+      <c r="G143" s="37">
+        <v>35</v>
+      </c>
+      <c r="H143" s="38">
+        <v>34</v>
+      </c>
+      <c r="I143" s="38"/>
+      <c r="J143" s="38">
+        <v>32</v>
+      </c>
+      <c r="K143" s="38">
+        <v>31</v>
+      </c>
+      <c r="L143" s="38">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="144" spans="2:17">
+      <c r="C144" s="37">
+        <v>49</v>
+      </c>
+      <c r="D144" s="37">
+        <v>48</v>
+      </c>
+      <c r="E144" s="37">
+        <v>47</v>
+      </c>
+      <c r="F144" s="37">
+        <v>46</v>
+      </c>
+      <c r="G144" s="37">
+        <v>45</v>
+      </c>
+      <c r="H144" s="38"/>
+      <c r="I144" s="39">
+        <v>43</v>
+      </c>
+      <c r="J144" s="38">
+        <v>42</v>
+      </c>
+      <c r="K144" s="38">
+        <v>41</v>
+      </c>
+      <c r="L144" s="38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="145" spans="2:17">
+      <c r="C145" s="38">
+        <v>59</v>
+      </c>
+      <c r="D145" s="39">
+        <v>58</v>
+      </c>
+      <c r="E145" s="39">
+        <v>57</v>
+      </c>
+      <c r="F145" s="38">
+        <v>56</v>
+      </c>
+      <c r="G145" s="38"/>
+      <c r="H145" s="40">
+        <v>54</v>
+      </c>
+      <c r="I145" s="40">
+        <v>53</v>
+      </c>
+      <c r="J145" s="40">
+        <v>52</v>
+      </c>
+      <c r="K145" s="40">
+        <v>51</v>
+      </c>
+      <c r="L145" s="40">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="146" spans="2:17">
+      <c r="C146" s="38">
+        <v>69</v>
+      </c>
+      <c r="D146" s="39">
+        <v>68</v>
+      </c>
+      <c r="E146" s="39">
+        <v>67</v>
+      </c>
+      <c r="F146" s="38"/>
+      <c r="G146" s="39">
+        <v>65</v>
+      </c>
+      <c r="H146" s="40">
+        <v>64</v>
+      </c>
+      <c r="I146" s="40">
+        <v>63</v>
+      </c>
+      <c r="J146" s="40">
+        <v>62</v>
+      </c>
+      <c r="K146" s="40">
+        <v>61</v>
+      </c>
+      <c r="L146" s="40">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="147" spans="2:17">
+      <c r="C147" s="38">
+        <v>79</v>
+      </c>
+      <c r="D147" s="39">
+        <v>78</v>
+      </c>
+      <c r="E147" s="38"/>
+      <c r="F147" s="39">
+        <v>76</v>
+      </c>
+      <c r="G147" s="39">
+        <v>75</v>
+      </c>
+      <c r="H147" s="40">
+        <v>74</v>
+      </c>
+      <c r="I147" s="40">
+        <v>73</v>
+      </c>
+      <c r="J147" s="40">
+        <v>72</v>
+      </c>
+      <c r="K147" s="40">
+        <v>71</v>
+      </c>
+      <c r="L147" s="40">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="148" spans="2:17">
+      <c r="C148" s="38">
+        <v>89</v>
+      </c>
+      <c r="D148" s="38"/>
+      <c r="E148" s="39">
+        <v>87</v>
+      </c>
+      <c r="F148" s="39">
+        <v>86</v>
+      </c>
+      <c r="G148" s="39">
+        <v>85</v>
+      </c>
+      <c r="H148" s="40">
+        <v>84</v>
+      </c>
+      <c r="I148" s="40">
+        <v>83</v>
+      </c>
+      <c r="J148" s="40">
+        <v>82</v>
+      </c>
+      <c r="K148" s="40">
+        <v>81</v>
+      </c>
+      <c r="L148" s="40">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="149" spans="2:17">
+      <c r="C149" s="38"/>
+      <c r="D149" s="38">
+        <v>98</v>
+      </c>
+      <c r="E149" s="39">
+        <v>97</v>
+      </c>
+      <c r="F149" s="39">
+        <v>96</v>
+      </c>
+      <c r="G149" s="39">
+        <v>95</v>
+      </c>
+      <c r="H149" s="40">
+        <v>94</v>
+      </c>
+      <c r="I149" s="40">
+        <v>93</v>
+      </c>
+      <c r="J149" s="40">
+        <v>92</v>
+      </c>
+      <c r="K149" s="40">
+        <v>91</v>
+      </c>
+      <c r="L149" s="40">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="152" spans="2:17">
+      <c r="B152" s="33" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="153" spans="2:17">
+      <c r="B153" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C153" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="D153" s="3">
+        <v>59</v>
+      </c>
+      <c r="E153" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="F153" s="26">
+        <v>54</v>
+      </c>
+      <c r="G153" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="H153" s="26">
+        <v>50</v>
+      </c>
+      <c r="I153" s="27">
+        <v>56</v>
+      </c>
+      <c r="J153" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="K153" s="41" t="s">
+        <v>285</v>
+      </c>
+      <c r="L153" s="26">
+        <v>52</v>
+      </c>
+      <c r="M153" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="N153" s="26">
+        <v>53</v>
+      </c>
+      <c r="O153" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="P153" s="26">
+        <v>51</v>
+      </c>
+      <c r="Q153" s="13" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="154" spans="2:17">
+      <c r="B154" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C154" s="8">
+        <v>19</v>
+      </c>
+      <c r="D154" s="3">
+        <v>69</v>
+      </c>
+      <c r="E154" s="8">
+        <v>18</v>
+      </c>
+      <c r="F154" s="26">
+        <v>64</v>
+      </c>
+      <c r="G154" s="3">
+        <v>14</v>
+      </c>
+      <c r="H154" s="26">
+        <v>60</v>
+      </c>
+      <c r="I154" s="3">
+        <v>10</v>
+      </c>
+      <c r="J154" s="8">
+        <v>16</v>
+      </c>
+      <c r="K154" s="8">
+        <v>15</v>
+      </c>
+      <c r="L154" s="26">
+        <v>62</v>
+      </c>
+      <c r="M154" s="3">
+        <v>12</v>
+      </c>
+      <c r="N154" s="26">
+        <v>63</v>
+      </c>
+      <c r="O154" s="8">
+        <v>17</v>
+      </c>
+      <c r="P154" s="26">
+        <v>61</v>
+      </c>
+      <c r="Q154" s="3"/>
+    </row>
+    <row r="155" spans="2:17">
+      <c r="B155" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C155" s="8">
+        <v>29</v>
+      </c>
+      <c r="D155" s="3">
+        <v>79</v>
+      </c>
+      <c r="E155" s="8">
+        <v>28</v>
+      </c>
+      <c r="F155" s="26">
+        <v>74</v>
+      </c>
+      <c r="G155" s="3">
+        <v>24</v>
+      </c>
+      <c r="H155" s="26">
+        <v>70</v>
+      </c>
+      <c r="I155" s="3">
+        <v>20</v>
+      </c>
+      <c r="J155" s="8">
+        <v>26</v>
+      </c>
+      <c r="K155" s="8">
+        <v>25</v>
+      </c>
+      <c r="L155" s="26">
+        <v>72</v>
+      </c>
+      <c r="M155" s="28">
+        <v>23</v>
+      </c>
+      <c r="N155" s="26">
+        <v>73</v>
+      </c>
+      <c r="O155" s="8">
+        <v>27</v>
+      </c>
+      <c r="P155" s="26">
+        <v>71</v>
+      </c>
+      <c r="Q155" s="13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="156" spans="2:17">
+      <c r="B156" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C156" s="8">
+        <v>39</v>
+      </c>
+      <c r="D156" s="3">
+        <v>89</v>
+      </c>
+      <c r="E156" s="8">
+        <v>38</v>
+      </c>
+      <c r="F156" s="26">
+        <v>84</v>
+      </c>
+      <c r="G156" s="3">
+        <v>34</v>
+      </c>
+      <c r="H156" s="26">
+        <v>80</v>
+      </c>
+      <c r="I156" s="3">
+        <v>30</v>
+      </c>
+      <c r="J156" s="8">
+        <v>36</v>
+      </c>
+      <c r="K156" s="8">
+        <v>35</v>
+      </c>
+      <c r="L156" s="26">
+        <v>82</v>
+      </c>
+      <c r="M156" s="3">
+        <v>32</v>
+      </c>
+      <c r="N156" s="26">
+        <v>83</v>
+      </c>
+      <c r="O156" s="8">
+        <v>37</v>
+      </c>
+      <c r="P156" s="26">
+        <v>81</v>
+      </c>
+      <c r="Q156" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="157" spans="2:17">
+      <c r="B157" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C157" s="8">
+        <v>49</v>
+      </c>
+      <c r="D157" s="25">
+        <v>98</v>
+      </c>
+      <c r="E157" s="8">
+        <v>48</v>
+      </c>
+      <c r="F157" s="26">
+        <v>94</v>
+      </c>
+      <c r="G157" s="42">
+        <v>40</v>
+      </c>
+      <c r="H157" s="26">
+        <v>90</v>
+      </c>
+      <c r="I157" s="3"/>
+      <c r="J157" s="8">
+        <v>46</v>
+      </c>
+      <c r="K157" s="8">
+        <v>45</v>
+      </c>
+      <c r="L157" s="26">
+        <v>92</v>
+      </c>
+      <c r="M157" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="N157" s="26">
+        <v>93</v>
+      </c>
+      <c r="O157" s="8">
+        <v>47</v>
+      </c>
+      <c r="P157" s="26">
+        <v>91</v>
+      </c>
+      <c r="Q157" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="159" spans="2:17">
+      <c r="C159" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="D159" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="E159" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="F159" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="G159" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="H159" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="I159" s="36" t="s">
+        <v>287</v>
+      </c>
+      <c r="J159" s="35" t="s">
+        <v>288</v>
+      </c>
+      <c r="K159" s="35" t="s">
+        <v>289</v>
+      </c>
+      <c r="L159" s="35"/>
+    </row>
+    <row r="160" spans="2:17">
+      <c r="C160" s="37">
+        <v>19</v>
+      </c>
+      <c r="D160" s="37">
+        <v>18</v>
+      </c>
+      <c r="E160" s="37">
+        <v>17</v>
+      </c>
+      <c r="F160" s="37">
+        <v>16</v>
+      </c>
+      <c r="G160" s="37">
+        <v>15</v>
+      </c>
+      <c r="H160" s="38">
+        <v>14</v>
+      </c>
+      <c r="I160" s="39">
+        <v>13</v>
+      </c>
+      <c r="J160" s="38">
+        <v>12</v>
+      </c>
+      <c r="K160" s="38"/>
+      <c r="L160" s="38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="3:12">
+      <c r="C161" s="37">
+        <v>29</v>
+      </c>
+      <c r="D161" s="37">
+        <v>28</v>
+      </c>
+      <c r="E161" s="37">
+        <v>27</v>
+      </c>
+      <c r="F161" s="37">
+        <v>26</v>
+      </c>
+      <c r="G161" s="37">
+        <v>25</v>
+      </c>
+      <c r="H161" s="38">
+        <v>24</v>
+      </c>
+      <c r="I161" s="38">
+        <v>23</v>
+      </c>
+      <c r="J161" s="38"/>
+      <c r="K161" s="38">
+        <v>21</v>
+      </c>
+      <c r="L161" s="38">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="162" spans="3:12">
+      <c r="C162" s="37">
+        <v>39</v>
+      </c>
+      <c r="D162" s="37">
+        <v>38</v>
+      </c>
+      <c r="E162" s="37">
+        <v>37</v>
+      </c>
+      <c r="F162" s="37">
+        <v>36</v>
+      </c>
+      <c r="G162" s="37">
+        <v>35</v>
+      </c>
+      <c r="H162" s="38">
+        <v>34</v>
+      </c>
+      <c r="I162" s="38"/>
+      <c r="J162" s="38">
+        <v>32</v>
+      </c>
+      <c r="K162" s="38">
+        <v>31</v>
+      </c>
+      <c r="L162" s="38">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="163" spans="3:12">
+      <c r="C163" s="37">
+        <v>49</v>
+      </c>
+      <c r="D163" s="37">
+        <v>48</v>
+      </c>
+      <c r="E163" s="37">
+        <v>47</v>
+      </c>
+      <c r="F163" s="37">
+        <v>46</v>
+      </c>
+      <c r="G163" s="37">
+        <v>45</v>
+      </c>
+      <c r="H163" s="38"/>
+      <c r="I163" s="39">
+        <v>43</v>
+      </c>
+      <c r="J163" s="38">
+        <v>42</v>
+      </c>
+      <c r="K163" s="38">
+        <v>41</v>
+      </c>
+      <c r="L163" s="38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="164" spans="3:12">
+      <c r="C164" s="38">
+        <v>59</v>
+      </c>
+      <c r="D164" s="39">
+        <v>58</v>
+      </c>
+      <c r="E164" s="39">
+        <v>57</v>
+      </c>
+      <c r="F164" s="38">
+        <v>56</v>
+      </c>
+      <c r="G164" s="38"/>
+      <c r="H164" s="40">
+        <v>54</v>
+      </c>
+      <c r="I164" s="40">
+        <v>53</v>
+      </c>
+      <c r="J164" s="40">
+        <v>52</v>
+      </c>
+      <c r="K164" s="40">
+        <v>51</v>
+      </c>
+      <c r="L164" s="40">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="165" spans="3:12">
+      <c r="C165" s="38">
+        <v>69</v>
+      </c>
+      <c r="D165" s="39">
+        <v>68</v>
+      </c>
+      <c r="E165" s="39">
+        <v>67</v>
+      </c>
+      <c r="F165" s="38"/>
+      <c r="G165" s="39">
+        <v>65</v>
+      </c>
+      <c r="H165" s="40">
+        <v>64</v>
+      </c>
+      <c r="I165" s="40">
+        <v>63</v>
+      </c>
+      <c r="J165" s="40">
+        <v>62</v>
+      </c>
+      <c r="K165" s="40">
+        <v>61</v>
+      </c>
+      <c r="L165" s="40">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="166" spans="3:12">
+      <c r="C166" s="38">
+        <v>79</v>
+      </c>
+      <c r="D166" s="39">
+        <v>78</v>
+      </c>
+      <c r="E166" s="38"/>
+      <c r="F166" s="39">
+        <v>76</v>
+      </c>
+      <c r="G166" s="39">
+        <v>75</v>
+      </c>
+      <c r="H166" s="40">
+        <v>74</v>
+      </c>
+      <c r="I166" s="40">
+        <v>73</v>
+      </c>
+      <c r="J166" s="40">
+        <v>72</v>
+      </c>
+      <c r="K166" s="40">
+        <v>71</v>
+      </c>
+      <c r="L166" s="40">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="167" spans="3:12">
+      <c r="C167" s="38">
+        <v>89</v>
+      </c>
+      <c r="D167" s="38"/>
+      <c r="E167" s="39">
+        <v>87</v>
+      </c>
+      <c r="F167" s="39">
+        <v>86</v>
+      </c>
+      <c r="G167" s="39">
+        <v>85</v>
+      </c>
+      <c r="H167" s="40">
+        <v>84</v>
+      </c>
+      <c r="I167" s="40">
+        <v>83</v>
+      </c>
+      <c r="J167" s="40">
+        <v>82</v>
+      </c>
+      <c r="K167" s="40">
+        <v>81</v>
+      </c>
+      <c r="L167" s="40">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="168" spans="3:12">
+      <c r="C168" s="38"/>
+      <c r="D168" s="38">
+        <v>98</v>
+      </c>
+      <c r="E168" s="39">
+        <v>97</v>
+      </c>
+      <c r="F168" s="39">
+        <v>96</v>
+      </c>
+      <c r="G168" s="39">
+        <v>95</v>
+      </c>
+      <c r="H168" s="40">
+        <v>94</v>
+      </c>
+      <c r="I168" s="40">
+        <v>93</v>
+      </c>
+      <c r="J168" s="40">
+        <v>92</v>
+      </c>
+      <c r="K168" s="40">
+        <v>91</v>
+      </c>
+      <c r="L168" s="40">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/memo/RR-Matrix.xlsx
+++ b/memo/RR-Matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kenn/Git/jpskenn/Jones/memo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D967B29-3299-AB4E-B311-3BFD75449F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C344AA4C-BA09-4C4A-8C53-77C9F9B7B604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25100" windowHeight="28300" xr2:uid="{C28881F8-7D55-C046-B510-F2C8007FF724}"/>
+    <workbookView xWindow="0" yWindow="7700" windowWidth="25100" windowHeight="21100" xr2:uid="{C28881F8-7D55-C046-B510-F2C8007FF724}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1061,7 +1061,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>v.1.1: SemiErgo追加</t>
+    <t>v.1.1: SemiErgo追加　→40</t>
     <rPh sb="15" eb="17">
       <t xml:space="preserve">ツイカ </t>
     </rPh>
@@ -1712,8 +1712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E9B368-2B13-3F49-8091-344B5B7BA793}">
   <dimension ref="A1:AB168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G157" sqref="G157"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B153" sqref="B153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
